--- a/2-hard-in-excel-easy-in-python/data-analysis/hard-excel-easy-python-analysis-solution.xlsx
+++ b/2-hard-in-excel-easy-in-python/data-analysis/hard-excel-easy-python-analysis-solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\python_for_excel\2-hard-in-excel-easy-in-python\data-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\python-powered-excel\2-hard-in-excel-easy-in-python\data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205D597E-C422-4EA6-A829-DEDB0D72F0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2FEE48-A4D1-4AD6-8681-53C4264B4B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
@@ -356,81 +356,88 @@
 </metadata>
 </file>
 
-<file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
-<pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
-  <pythonScript>
-    <code xml:space="preserve">sales = xl(%P2%, headers=True)
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{00000000-0000-0000-0000-000000000000}">
+    <initialization>
+      <code/>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code xml:space="preserve">sales = xl(%P2%, headers=True)
 # Load and preview the dataset
 sales.head()
 </code>
-  </pythonScript>
-  <pythonScript>
-    <code># Print first few rows
+    </pythonScript>
+    <pythonScript>
+      <code># Print first few rows
 sales.head()</code>
-  </pythonScript>
-  <pythonScript>
-    <code xml:space="preserve"># Print last few rows
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve"># Print last few rows
 sales.tail()
 </code>
-  </pythonScript>
-  <pythonScript>
-    <code># Sample 5 records at random
+    </pythonScript>
+    <pythonScript>
+      <code># Sample 5 records at random
 sales.sample(5)</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Find %% of missing values in each column
+    </pythonScript>
+    <pythonScript>
+      <code># Find %% of missing values in each column
 (sales.isna().sum().sort_values(ascending=False)) / 100</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sales.isnull().sum()</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sales.isnull().sum() / len(sales)</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Generate descriptive statistics
+    </pythonScript>
+    <pythonScript>
+      <code>sales.isnull().sum()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales.isnull().sum() / len(sales)</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Generate descriptive statistics
 sales.describe()</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Include all variables and change percentiles
+    </pythonScript>
+    <pythonScript>
+      <code># Include all variables and change percentiles
 sales.describe(percentiles=[.1, .5, .9])</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Include all variables and change percentiles
+    </pythonScript>
+    <pythonScript>
+      <code># Include all variables and change percentiles
 sales.describe(exclude='number')</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sales.corr()</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sns.heatmap(sales.corr(), annot=True)</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sales_ts = sales.set_index('order_date')
+    </pythonScript>
+    <pythonScript>
+      <code>sales.corr()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.heatmap(sales.corr(), annot=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_ts = sales.set_index('order_date')
 sales_ts.head()</code>
-  </pythonScript>
-  <pythonScript>
-    <code>sales_ts.resample('W').sum()['quantity'].head()</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Calculate sales as price * quantity
+    </pythonScript>
+    <pythonScript>
+      <code>sales_ts.resample('W').sum()['quantity'].head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Calculate sales as price * quantity
 sales_ts['sales'] = sales_ts['quantity'] * sales_ts['unit_price']
 # Get total sales by month
 monthly_sales = sales_ts.resample('M').sum()['sales'].head()</code>
-  </pythonScript>
-  <pythonScript>
-    <code># Convert to DataFrame
+    </pythonScript>
+    <pythonScript>
+      <code># Convert to DataFrame
 monthly_sales_df = monthly_sales.to_frame().reset_index()
 monthly_sales_df['next_month_sales'] = monthly_sales_df['sales'].shift(-1)
 monthly_sales_df['previous_month_sales'] = monthly_sales_df['sales'].shift(1)
 monthly_sales_df</code>
-  </pythonScript>
-  <pythonScript>
-    <code>monthly_sales_df['running_avg_sales'] = monthly_sales_df['sales'].expanding().mean()
+    </pythonScript>
+    <pythonScript>
+      <code>monthly_sales_df['running_avg_sales'] = monthly_sales_df['sales'].expanding().mean()
 monthly_sales_df['running_ttl_sales'] = monthly_sales_df['sales'].expanding().sum()
 monthly_sales_df.head()</code>
-  </pythonScript>
-</pythonScripts>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19896,7 +19903,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.04296875" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -20477,7 +20484,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
